--- a/workspace/MobiliyaAppiumFramework/src/com/mobiliya/edvelop/testData/TestData.xlsx
+++ b/workspace/MobiliyaAppiumFramework/src/com/mobiliya/edvelop/testData/TestData.xlsx
@@ -143,9 +143,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="20.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,14 +183,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
